--- a/Tableau Table 2.xlsx
+++ b/Tableau Table 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Abroad\USA\Jobs\Portfolio\Tableau Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6121A3-2615-4529-87A3-7324DAB4EB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49302D3E-6BC9-40B9-8000-19A1091ECCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D61277B0-529A-4EBD-ACDA-3FA775377D6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>location</t>
   </si>
@@ -44,12 +44,6 @@
     <t>TotalDeathCount</t>
   </si>
   <si>
-    <t>High income</t>
-  </si>
-  <si>
-    <t>Upper middle income</t>
-  </si>
-  <si>
     <t>Europe</t>
   </si>
   <si>
@@ -62,13 +56,7 @@
     <t>South America</t>
   </si>
   <si>
-    <t>Lower middle income</t>
-  </si>
-  <si>
     <t>Africa</t>
-  </si>
-  <si>
-    <t>Low income</t>
   </si>
   <si>
     <t>Oceania</t>
@@ -441,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184BDA31-D64F-4887-829C-F95D9C99E837}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2913655</v>
+        <v>2082494</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>2667294</v>
+        <v>1635654</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -482,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>2082494</v>
+        <v>1606198</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -490,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>1635654</v>
+        <v>1359982</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>1606198</v>
+        <v>259042</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,38 +494,6 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>1359982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1340728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>259042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>48001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
         <v>30265</v>
       </c>
     </row>
